--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_5.xlsx
@@ -518,551 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_8</t>
+          <t>model_20_5_18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9790739789689223</v>
+        <v>0.980438766803498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8124469409734821</v>
+        <v>0.8118971756332579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3309397195157331</v>
+        <v>0.9152349704615874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9693635514282584</v>
+        <v>0.6266770401906059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.819056220081426</v>
+        <v>0.881184204155584</v>
       </c>
       <c r="G2" t="n">
-        <v>0.139932398990283</v>
+        <v>0.1308060564562062</v>
       </c>
       <c r="H2" t="n">
-        <v>1.254168169312753</v>
+        <v>1.257844452674269</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6524378552707101</v>
+        <v>0.3627404741018558</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09696651163230739</v>
+        <v>0.4181708099239055</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3747021401294707</v>
+        <v>0.3904556619346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6646560369605784</v>
+        <v>1.891376071075684</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3740753921207369</v>
+        <v>0.3616711993734173</v>
       </c>
       <c r="N2" t="n">
-        <v>1.009475934051809</v>
+        <v>1.008857916919171</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3900005560061296</v>
+        <v>0.3770682910933378</v>
       </c>
       <c r="P2" t="n">
-        <v>157.933191674689</v>
+        <v>158.068079075698</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.7866301895404</v>
+        <v>251.9215175905494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_7</t>
+          <t>model_20_5_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9791155204713439</v>
+        <v>0.9809423193688134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8123997122172617</v>
+        <v>0.8118886108475513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3505373858471275</v>
+        <v>0.918282210183986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9731159059470006</v>
+        <v>0.6414927457941294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8265380728291396</v>
+        <v>0.8856932970218769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1396546107723097</v>
+        <v>0.1274387981332953</v>
       </c>
       <c r="H3" t="n">
-        <v>1.254483988223068</v>
+        <v>1.257901725435727</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6333270819031576</v>
+        <v>0.3497002240409037</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08509004601527873</v>
+        <v>0.4015752712648774</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3592085639592182</v>
+        <v>0.3756377597582056</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7150331144850756</v>
+        <v>1.851956108450966</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3737039078900697</v>
+        <v>0.3569857113853373</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009457122805429</v>
+        <v>1.008629893116009</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3896132569226846</v>
+        <v>0.3721833321813081</v>
       </c>
       <c r="P3" t="n">
-        <v>157.937165941013</v>
+        <v>158.1202380885368</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.7906044558644</v>
+        <v>251.9736766033882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_9</t>
+          <t>model_20_5_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.978975108954994</v>
+        <v>0.979959104141631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8123632829665406</v>
+        <v>0.8118788581741518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3138961201855247</v>
+        <v>0.9124731842793854</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9658141477277213</v>
+        <v>0.6131199553744375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8123307693063577</v>
+        <v>0.8770754823588389</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1405935432286767</v>
+        <v>0.1340135628847539</v>
       </c>
       <c r="H4" t="n">
-        <v>1.254727590790381</v>
+        <v>1.257966941607656</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6690580159908263</v>
+        <v>0.3745591643631021</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1082006236544606</v>
+        <v>0.4333565277824553</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3886293433739675</v>
+        <v>0.4039578539407364</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6186764056677005</v>
+        <v>1.926635164111892</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3749580552924243</v>
+        <v>0.3660786293745564</v>
       </c>
       <c r="N4" t="n">
-        <v>1.009520705378871</v>
+        <v>1.009075122652846</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3909207959764004</v>
+        <v>0.3816633545142634</v>
       </c>
       <c r="P4" t="n">
-        <v>157.9237644472849</v>
+        <v>158.0196285371906</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.7772029621363</v>
+        <v>251.873067052042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_10</t>
+          <t>model_20_5_16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9788369903451462</v>
+        <v>0.9814652365627337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8121826082835111</v>
+        <v>0.8118430182569473</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2990730312014521</v>
+        <v>0.9216396646989486</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9624805816556926</v>
+        <v>0.6576450165451611</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8062931291679718</v>
+        <v>0.8906321685515206</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1415171430087068</v>
+        <v>0.1239420484497381</v>
       </c>
       <c r="H5" t="n">
-        <v>1.25593576322773</v>
+        <v>1.25820660329903</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6835128336916397</v>
+        <v>0.3353324517512584</v>
       </c>
       <c r="J5" t="n">
-        <v>0.11875159442196</v>
+        <v>0.3834826038716966</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4011322140567999</v>
+        <v>0.3594075073863565</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5767750772807527</v>
+        <v>1.807875994736234</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3761876433493089</v>
+        <v>0.3520540419448954</v>
       </c>
       <c r="N5" t="n">
-        <v>1.009583249655028</v>
+        <v>1.008393100424422</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3922027301424648</v>
+        <v>0.3670417113628234</v>
       </c>
       <c r="P5" t="n">
-        <v>157.9106688344643</v>
+        <v>158.175882347663</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.7641073493158</v>
+        <v>252.0293208625145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_6</t>
+          <t>model_20_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9790743455009669</v>
+        <v>0.9795061794450168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8121793807839616</v>
+        <v>0.811841492663955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3729987877541685</v>
+        <v>0.9099733829321583</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9770461714993082</v>
+        <v>0.6007392643535661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8348300900347337</v>
+        <v>0.8733378261050873</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139929947988813</v>
+        <v>0.137042272416539</v>
       </c>
       <c r="H6" t="n">
-        <v>1.255957345532079</v>
+        <v>1.258216804946394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6114237208547387</v>
+        <v>0.3852567259730194</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07265047948055289</v>
+        <v>0.4472245298851353</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3420372823914035</v>
+        <v>0.4162406403856767</v>
       </c>
       <c r="L6" t="n">
-        <v>0.770146434137342</v>
+        <v>1.958176634128045</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3740721160268605</v>
+        <v>0.3701922100970507</v>
       </c>
       <c r="N6" t="n">
-        <v>1.009475768075034</v>
+        <v>1.009280220628672</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3899971404421545</v>
+        <v>0.3859520588844003</v>
       </c>
       <c r="P6" t="n">
-        <v>157.9332267062178</v>
+        <v>157.9749316859264</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.7866652210693</v>
+        <v>251.8283702007779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_11</t>
+          <t>model_20_5_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9786725423040012</v>
+        <v>0.9790814764189838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8119319926144718</v>
+        <v>0.8117911260961035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2861380657386635</v>
+        <v>0.9077126260690062</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9593678474730571</v>
+        <v>0.5894543422832335</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8008688677873401</v>
+        <v>0.869942568295534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1426168078170566</v>
+        <v>0.1398822635071996</v>
       </c>
       <c r="H7" t="n">
-        <v>1.257611631360575</v>
+        <v>1.258553606417534</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6961264372348572</v>
+        <v>0.3949313290591565</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1286036167483078</v>
+        <v>0.4598651266608829</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4123648872598187</v>
+        <v>0.4273982278600197</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5386354873430654</v>
+        <v>1.986407924865666</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3776464058044994</v>
+        <v>0.3740083735789877</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009657716692528</v>
+        <v>1.009472538980083</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3937235951354274</v>
+        <v>0.3899306843463107</v>
       </c>
       <c r="P7" t="n">
-        <v>157.8951878221358</v>
+        <v>157.9339083702784</v>
       </c>
       <c r="Q7" t="n">
-        <v>251.7486263369873</v>
+        <v>251.7873468851299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_5</t>
+          <t>model_20_5_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9789148477627417</v>
+        <v>0.9820006745443044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8117331938527393</v>
+        <v>0.8117471752670604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3985552145466018</v>
+        <v>0.9253322229188633</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9811110728772842</v>
+        <v>0.6752049703195002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8439539062515931</v>
+        <v>0.8960291209241747</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1409965100987447</v>
+        <v>0.1203615722015092</v>
       </c>
       <c r="H8" t="n">
-        <v>1.258940999595664</v>
+        <v>1.258847505813721</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5865022290681251</v>
+        <v>0.3195306485001483</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05978478110077215</v>
+        <v>0.3638131463709021</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3231434941432325</v>
+        <v>0.3416718974355252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8303626782648845</v>
+        <v>1.758566501419478</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3754950200718309</v>
+        <v>0.3469316535018234</v>
       </c>
       <c r="N8" t="n">
-        <v>1.009547993465928</v>
+        <v>1.008150637942202</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3914806204581368</v>
+        <v>0.361701252238924</v>
       </c>
       <c r="P8" t="n">
-        <v>157.918040279966</v>
+        <v>158.2345099296277</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.7714787948175</v>
+        <v>252.0879484444791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_12</t>
+          <t>model_20_5_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9784912055514448</v>
+        <v>0.9786855081671602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8116331655287174</v>
+        <v>0.8117323248464445</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2747947388148199</v>
+        <v>0.9056700512457174</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9564751042758708</v>
+        <v>0.57918210683642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7959873203174297</v>
+        <v>0.8668619509447419</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1438294075163809</v>
+        <v>0.1425301050304105</v>
       </c>
       <c r="H9" t="n">
-        <v>1.259609889458986</v>
+        <v>1.258946810644759</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7071879456006959</v>
+        <v>0.4036722516285577</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1377593521535523</v>
+        <v>0.4713713812419464</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4224736972169344</v>
+        <v>0.437521835401611</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5039809429266451</v>
+        <v>2.011682209477863</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3792484772762851</v>
+        <v>0.3775315947446128</v>
       </c>
       <c r="N9" t="n">
-        <v>1.009739831448402</v>
+        <v>1.009651845358267</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3953938701065121</v>
+        <v>0.3936038963310297</v>
       </c>
       <c r="P9" t="n">
-        <v>157.878254703415</v>
+        <v>157.8964040764302</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.7316932182664</v>
+        <v>251.7498425912816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_13</t>
+          <t>model_20_5_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9782999437207216</v>
+        <v>0.9783180920161826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.811303065335954</v>
+        <v>0.811668612307248</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2647817561394391</v>
+        <v>0.9038257889733958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9537979532084376</v>
+        <v>0.5698449203672017</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7915838531345044</v>
+        <v>0.8640698286506054</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1451083762591062</v>
+        <v>0.1449870185237931</v>
       </c>
       <c r="H10" t="n">
-        <v>1.261817270967967</v>
+        <v>1.259372856687735</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7169521613704016</v>
+        <v>0.4115645224703552</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1462327233249466</v>
+        <v>0.4818302580017285</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4315924885795031</v>
+        <v>0.4466973827336087</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4725171388669571</v>
+        <v>2.034313792131243</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3809309337125383</v>
+        <v>0.3807716093983283</v>
       </c>
       <c r="N10" t="n">
-        <v>1.009826440579296</v>
+        <v>1.009818222483238</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3971479521964216</v>
+        <v>0.3969818451163088</v>
       </c>
       <c r="P10" t="n">
-        <v>157.8605487865321</v>
+        <v>157.862222135983</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.7139873013835</v>
+        <v>251.7156606508344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_4</t>
+          <t>model_20_5_24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9785873672406189</v>
+        <v>0.9779784933734647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8109955983830025</v>
+        <v>0.8116025570651511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.427301862830945</v>
+        <v>0.9021608313710323</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9852380732024902</v>
+        <v>0.5613684330192804</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8538761460566547</v>
+        <v>0.8615411241424205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1431863738580897</v>
+        <v>0.1472579162113563</v>
       </c>
       <c r="H11" t="n">
-        <v>1.263873303898109</v>
+        <v>1.259814568395794</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5584697750427821</v>
+        <v>0.4186894832393138</v>
       </c>
       <c r="J11" t="n">
-        <v>0.046722535191181</v>
+        <v>0.4913250385568804</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3025963137344476</v>
+        <v>0.4550072794570487</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8960724067530309</v>
+        <v>2.054594956930577</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3783997540407362</v>
+        <v>0.3837419917227672</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00969628653255</v>
+        <v>1.009972003000695</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3945090149657266</v>
+        <v>0.4000786827658382</v>
       </c>
       <c r="P11" t="n">
-        <v>157.8872163672107</v>
+        <v>157.8311393950934</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.7406548820622</v>
+        <v>251.6845779099448</v>
       </c>
     </row>
     <row r="12">
@@ -1072,712 +1072,712 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.978103947884903</v>
+        <v>0.9825386880096083</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8109552554232715</v>
+        <v>0.8115842632340484</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2558806019059437</v>
+        <v>0.9293843366248458</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9513293553443446</v>
+        <v>0.6942309443430964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7876015985848134</v>
+        <v>0.9019100394820788</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1464190013157035</v>
+        <v>0.1167638736816983</v>
       </c>
       <c r="H12" t="n">
-        <v>1.264143077455592</v>
+        <v>1.259936899328613</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7256321714486147</v>
+        <v>0.3021901761989309</v>
       </c>
       <c r="J12" t="n">
-        <v>0.154046008959002</v>
+        <v>0.3425015533976209</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4398390240668298</v>
+        <v>0.3223458647982759</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4439912661168672</v>
+        <v>1.703409004532396</v>
       </c>
       <c r="M12" t="n">
-        <v>0.38264735895561</v>
+        <v>0.3417072924034522</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00991519341061</v>
+        <v>1.007907009203196</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3989374492155809</v>
+        <v>0.3562544792726767</v>
       </c>
       <c r="P12" t="n">
-        <v>157.8425657909383</v>
+        <v>158.2952031142034</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.6960043057898</v>
+        <v>252.1486416290549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_15</t>
+          <t>model_20_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9779071517300348</v>
+        <v>0.9830654852540073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8106002141668855</v>
+        <v>0.8113324834907021</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2479133400406019</v>
+        <v>0.933818930256806</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9490598625830775</v>
+        <v>0.7147651578717342</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7839913129303628</v>
+        <v>0.9082970466385023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1477349781094696</v>
+        <v>0.1132411780827239</v>
       </c>
       <c r="H13" t="n">
-        <v>1.26651723997186</v>
+        <v>1.261620551631709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.733401491187699</v>
+        <v>0.2832129328089862</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1612291129574801</v>
+        <v>0.3195005338332066</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4473152786350173</v>
+        <v>0.3013567102054984</v>
       </c>
       <c r="L13" t="n">
-        <v>0.418155104863959</v>
+        <v>1.641711854538759</v>
       </c>
       <c r="M13" t="n">
-        <v>0.384363081095817</v>
+        <v>0.3365132658346829</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01000430865055</v>
+        <v>1.007668459507619</v>
       </c>
       <c r="O13" t="n">
-        <v>0.400726213199331</v>
+        <v>0.3508393322397577</v>
       </c>
       <c r="P13" t="n">
-        <v>157.8246705977334</v>
+        <v>158.3564708307549</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.6781091125848</v>
+        <v>252.2099093456064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_16</t>
+          <t>model_20_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9777126482816224</v>
+        <v>0.9835620941029695</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8102458836422149</v>
+        <v>0.8109638664246259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2407388695841189</v>
+        <v>0.9386553215696047</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9469796738316985</v>
+        <v>0.7368197483172649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7807123096521998</v>
+        <v>0.915204755266087</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1490356235646095</v>
+        <v>0.1099203524230401</v>
       </c>
       <c r="H14" t="n">
-        <v>1.268886649821874</v>
+        <v>1.264085495649885</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7403977159732188</v>
+        <v>0.2625162506123301</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1678130564679575</v>
+        <v>0.2947964921802199</v>
       </c>
       <c r="K14" t="n">
-        <v>0.454105506773128</v>
+        <v>0.2786564124423394</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3947770012660964</v>
+        <v>1.572711221462472</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3860513224489842</v>
+        <v>0.3315423840522356</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010092385683794</v>
+        <v>1.007443580028844</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4024863264820438</v>
+        <v>0.3456568297286878</v>
       </c>
       <c r="P14" t="n">
-        <v>157.8071398345731</v>
+        <v>158.4159984886713</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.6605783494245</v>
+        <v>252.2694370035227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_17</t>
+          <t>model_20_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9775227756913946</v>
+        <v>0.9840026957590865</v>
       </c>
       <c r="C15" t="n">
-        <v>0.80989832213989</v>
+        <v>0.8104425137518037</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2342469002769639</v>
+        <v>0.9439063577293061</v>
       </c>
       <c r="E15" t="n">
-        <v>0.945077124297016</v>
+        <v>0.760367311957329</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7777298830953354</v>
+        <v>0.922636922588191</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1503053024497459</v>
+        <v>0.1069740471198013</v>
       </c>
       <c r="H15" t="n">
-        <v>1.271210795188295</v>
+        <v>1.267571783373656</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7467283959654278</v>
+        <v>0.2400451519001789</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1738347593802196</v>
+        <v>0.2684201242115105</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4602815776728237</v>
+        <v>0.2542326244204106</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3736352062629988</v>
+        <v>1.495579832113772</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3876922780372933</v>
+        <v>0.3270688721352146</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010178365724651</v>
+        <v>1.007244062297772</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4041971409469936</v>
+        <v>0.3409928711479129</v>
       </c>
       <c r="P15" t="n">
-        <v>157.7901734074775</v>
+        <v>158.4703380484451</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.6436119223289</v>
+        <v>252.3237765632965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_3</t>
+          <t>model_20_5_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9780235173508918</v>
+        <v>0.9843531035571117</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8098850850003798</v>
+        <v>0.8097222408949797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4591267916929733</v>
+        <v>0.9495766033954359</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9893124072544428</v>
+        <v>0.785326127273728</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8644831126178413</v>
+        <v>0.9305825335172228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1469568406669844</v>
+        <v>0.1046308685609275</v>
       </c>
       <c r="H16" t="n">
-        <v>1.27129931200115</v>
+        <v>1.27238825128379</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5274355185840728</v>
+        <v>0.2157801028297503</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03382698173571374</v>
+        <v>0.24046296877449</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2806311869279509</v>
+        <v>0.2281215442166273</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9676999592937418</v>
+        <v>1.409401301129174</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3833495019782658</v>
+        <v>0.323466951265392</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009951614784502</v>
+        <v>1.007085387068478</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3996694839203476</v>
+        <v>0.3372376090496578</v>
       </c>
       <c r="P16" t="n">
-        <v>157.8352326724349</v>
+        <v>158.5146333207255</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.6886711872863</v>
+        <v>252.3680718355769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_18</t>
+          <t>model_20_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9773392643263277</v>
+        <v>0.9845674352454077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8095619045515512</v>
+        <v>0.8087435725092795</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2283464425701923</v>
+        <v>0.9556534433694451</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9433411733825373</v>
+        <v>0.8115291367990315</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7750140220646438</v>
+        <v>0.9390049372151837</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1515324437929401</v>
+        <v>0.1031976315743853</v>
       </c>
       <c r="H17" t="n">
-        <v>1.273460421150577</v>
+        <v>1.27893261128532</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7524822601292596</v>
+        <v>0.1897750884362342</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1793291659576573</v>
+        <v>0.211112152202066</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4659056391407136</v>
+        <v>0.2004436147999526</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3545307599499424</v>
+        <v>1.313222125152115</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3892716837800306</v>
+        <v>0.321243881769576</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01026146521072</v>
+        <v>1.006988331209627</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4058437852620199</v>
+        <v>0.3349198988830167</v>
       </c>
       <c r="P17" t="n">
-        <v>157.7739110530224</v>
+        <v>158.5422187521173</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.6273495678738</v>
+        <v>252.3956572669687</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_19</t>
+          <t>model_20_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.977163475991875</v>
+        <v>0.9845855002017568</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8092397447566151</v>
+        <v>0.807429632425721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2229716946926193</v>
+        <v>0.9621020686489963</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9417599018722298</v>
+        <v>0.8387056848350615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7725400758439824</v>
+        <v>0.9478353088695399</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1527079411948558</v>
+        <v>0.1030768311280976</v>
       </c>
       <c r="H18" t="n">
-        <v>1.275614705182724</v>
+        <v>1.287718934674214</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7577234754280161</v>
+        <v>0.1621790691350255</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1843340013562191</v>
+        <v>0.1806708444695738</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4710287383921176</v>
+        <v>0.1714250101192666</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3372756429575354</v>
+        <v>1.205995168908287</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3907786345168525</v>
+        <v>0.321055806874907</v>
       </c>
       <c r="N18" t="n">
-        <v>1.010341067475377</v>
+        <v>1.006980150852035</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4074148900115263</v>
+        <v>0.3347238172507129</v>
       </c>
       <c r="P18" t="n">
-        <v>157.7584561258089</v>
+        <v>158.5445612710799</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.6118946406603</v>
+        <v>252.3979997859313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_20</t>
+          <t>model_20_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9769962063144221</v>
+        <v>0.9843277375303517</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8089339756174345</v>
+        <v>0.8056808449308905</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2180617919934001</v>
+        <v>0.9688505086380741</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9403217884011653</v>
+        <v>0.8664315575436359</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7702850599198405</v>
+        <v>0.95695454860377</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1538264742981899</v>
+        <v>0.1048004912986709</v>
       </c>
       <c r="H19" t="n">
-        <v>1.277659384824362</v>
+        <v>1.299413084704571</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7625113943646294</v>
+        <v>0.1333000333532153</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1888857315051627</v>
+        <v>0.14961422086327</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4756984722353158</v>
+        <v>0.1414571193900603</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3217041011848176</v>
+        <v>1.086627122032704</v>
       </c>
       <c r="M19" t="n">
-        <v>0.392207182874294</v>
+        <v>0.3237290399372149</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010416812234979</v>
+        <v>1.007096873571161</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4089042546300469</v>
+        <v>0.3375108553788386</v>
       </c>
       <c r="P19" t="n">
-        <v>157.7438602042909</v>
+        <v>158.5113936382835</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.5972987191423</v>
+        <v>252.364832153135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_21</t>
+          <t>model_20_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9768381009714826</v>
+        <v>0.9836899177623114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8086457370183167</v>
+        <v>0.8033673556189492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2135740332171094</v>
+        <v>0.9757708117767169</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9390155203440923</v>
+        <v>0.8940868506990711</v>
       </c>
       <c r="F20" t="n">
-        <v>0.768230149744185</v>
+        <v>0.966173639813491</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1548837254544344</v>
+        <v>0.1090655950244469</v>
       </c>
       <c r="H20" t="n">
-        <v>1.27958683766388</v>
+        <v>1.314883398386161</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7668876573059239</v>
+        <v>0.1036855324781549</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1930201616580073</v>
+        <v>0.1186366556382543</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4799538229356186</v>
+        <v>0.1111610940582046</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3076496209886936</v>
+        <v>0.9539525732227987</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3935526971759111</v>
+        <v>0.3302508062434472</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010488407107253</v>
+        <v>1.007385697617067</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4103070502610824</v>
+        <v>0.3443102667786446</v>
       </c>
       <c r="P20" t="n">
-        <v>157.7301612038619</v>
+        <v>158.4316115770808</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.5835997187133</v>
+        <v>252.2850500919322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_22</t>
+          <t>model_20_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9766893970399096</v>
+        <v>0.9825356235232333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8083756914982162</v>
+        <v>0.8003188997627724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2094656395479698</v>
+        <v>0.9826501830096147</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9378306540993597</v>
+        <v>0.9207969635596319</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7663572766492932</v>
+        <v>0.9752049989355589</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1558781093295812</v>
+        <v>0.1167843659161985</v>
       </c>
       <c r="H21" t="n">
-        <v>1.281392633300237</v>
+        <v>1.335268436733265</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7708939802521331</v>
+        <v>0.07424619415511217</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1967703465475368</v>
+        <v>0.08871781664222166</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4838322074656791</v>
+        <v>0.08148199895881493</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2949722807698293</v>
+        <v>0.8066750874157427</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3948140186588885</v>
+        <v>0.3417372761584526</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010555744736645</v>
+        <v>1.00790839689514</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4116220688108856</v>
+        <v>0.3562857394982024</v>
       </c>
       <c r="P21" t="n">
-        <v>157.7173618551947</v>
+        <v>158.2948521420088</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.5708003700462</v>
+        <v>252.1482906568602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_2</t>
+          <t>model_20_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9771307803641551</v>
+        <v>0.9806868032031789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8083008719166348</v>
+        <v>0.7963104865177448</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4936497999105133</v>
+        <v>0.9891441625294954</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9931555347929159</v>
+        <v>0.9453790240900013</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8755485186763629</v>
+        <v>0.9836227431032923</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1529265770079688</v>
+        <v>0.1291474359094367</v>
       </c>
       <c r="H22" t="n">
-        <v>1.281892952186784</v>
+        <v>1.362072714559809</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4937702150292991</v>
+        <v>0.04645608751942926</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02166321313534421</v>
+        <v>0.06118267611180433</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2577167140823217</v>
+        <v>0.0538193818156168</v>
       </c>
       <c r="L22" t="n">
-        <v>1.045709882037803</v>
+        <v>0.6433485744175655</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3910582782757179</v>
+        <v>0.3593708890678775</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010355873042647</v>
+        <v>1.008745598549504</v>
       </c>
       <c r="O22" t="n">
-        <v>0.407706438784149</v>
+        <v>0.3746700518157924</v>
       </c>
       <c r="P22" t="n">
-        <v>157.75559472322</v>
+        <v>158.0936012264457</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.6090332380714</v>
+        <v>251.9470397412971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_23</t>
+          <t>model_20_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.976550274881161</v>
+        <v>0.9779132186545809</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8081240406086252</v>
+        <v>0.7910441156417758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2057072908777446</v>
+        <v>0.9947141283033236</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9367570129087587</v>
+        <v>0.9663108607563494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7646518716303384</v>
+        <v>0.9908167571432553</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1568084198457322</v>
+        <v>0.147694408557094</v>
       </c>
       <c r="H23" t="n">
-        <v>1.283075423957677</v>
+        <v>1.397288960856822</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7745589548699454</v>
+        <v>0.02262017267893541</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2001684963282972</v>
+        <v>0.03773626634255049</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4873637956234896</v>
+        <v>0.03017821951074295</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2835483937196695</v>
+        <v>0.4622432593935576</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3959904289824847</v>
+        <v>0.3843103024342361</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01061874345004</v>
+        <v>1.010001561363963</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4128485613574623</v>
+        <v>0.4006711876408596</v>
       </c>
       <c r="P23" t="n">
-        <v>157.7054609490235</v>
+        <v>157.8252198938354</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.558899463875</v>
+        <v>251.6786584086868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_24</t>
+          <t>model_20_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9764206916167668</v>
+        <v>0.9739214150995381</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8078904616431116</v>
+        <v>0.7841273607315293</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2022709780670671</v>
+        <v>0.9985486226466282</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9357850140996818</v>
+        <v>0.9817660636239239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7631000125647512</v>
+        <v>0.9959474256684565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1576749437314126</v>
+        <v>0.1743876173102308</v>
       </c>
       <c r="H24" t="n">
-        <v>1.284637367575599</v>
+        <v>1.443541332790368</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7779098944274618</v>
+        <v>0.006210972993576284</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2032449408321771</v>
+        <v>0.02042440664881068</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4905774176298194</v>
+        <v>0.01331767869681215</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2732439688188929</v>
+        <v>0.261464895739826</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3970830438729568</v>
+        <v>0.417597434511074</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010677422664106</v>
+        <v>1.011809170520964</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4139876911258465</v>
+        <v>0.4353754218440712</v>
       </c>
       <c r="P24" t="n">
-        <v>157.6944393665937</v>
+        <v>157.492949543379</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.5478778814451</v>
+        <v>251.3463880582305</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.975786057810421</v>
+        <v>0.9683706170309476</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8061186265876947</v>
+        <v>0.7751171881579675</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5301640897931836</v>
+        <v>0.9995226534081614</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9965009393536856</v>
+        <v>0.9897947197006316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8867024394219684</v>
+        <v>0.9979499291046912</v>
       </c>
       <c r="G25" t="n">
-        <v>0.161918742916666</v>
+        <v>0.2115058295539706</v>
       </c>
       <c r="H25" t="n">
-        <v>1.296485636749722</v>
+        <v>1.503792398277807</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4581631020789695</v>
+        <v>0.002042740148588944</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01107477271944491</v>
+        <v>0.01143125601079077</v>
       </c>
       <c r="K25" t="n">
-        <v>0.23461894318302</v>
+        <v>0.006736998079689857</v>
       </c>
       <c r="L25" t="n">
-        <v>1.130616973238553</v>
+        <v>0.2807988519763405</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4023912808656097</v>
+        <v>0.4598976294285181</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010964804010375</v>
+        <v>1.014322739457684</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4195219107568421</v>
+        <v>0.4794764236326258</v>
       </c>
       <c r="P25" t="n">
-        <v>157.6413213130414</v>
+        <v>157.1070054359454</v>
       </c>
       <c r="Q25" t="n">
-        <v>251.4947598278929</v>
+        <v>250.9604439507969</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9738295654103704</v>
+        <v>0.9683607496251562</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8031857523544663</v>
+        <v>0.7751070922498575</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5676317517296452</v>
+        <v>0.9995225169006894</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9989617398683206</v>
+        <v>0.9898124940343371</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8974048198220042</v>
+        <v>0.9979528694716643</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1750018166046246</v>
+        <v>0.2115718129419328</v>
       </c>
       <c r="H26" t="n">
-        <v>1.316097780251965</v>
+        <v>1.503859909661825</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4216263030656738</v>
+        <v>0.002043324313844251</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003286166244109586</v>
+        <v>0.01141134641957446</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2124562314159854</v>
+        <v>0.006727335366709357</v>
       </c>
       <c r="L26" t="n">
-        <v>1.222995630065147</v>
+        <v>0.2807300937289917</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4183321845192223</v>
+        <v>0.4599693608730182</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01185076283304</v>
+        <v>1.01432720771691</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4361414516812085</v>
+        <v>0.4795512088332227</v>
       </c>
       <c r="P26" t="n">
-        <v>157.4859178490293</v>
+        <v>157.1063815940605</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3393563638807</v>
+        <v>250.9598201089119</v>
       </c>
     </row>
   </sheetData>
